--- a/network/case1/FFP_case1.xlsx
+++ b/network/case1/FFP_case1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\專題研究\code\githubrepo\final\network\case1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yung-li\Desktop\ff\final version\network\case1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B156C5AE-9640-4FDF-9CE6-759A8D75E53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78455006-C437-4B47-AE6F-BAC47FCB9E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{0032A2A4-6FBF-412F-BF64-047EC1582983}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{0032A2A4-6FBF-412F-BF64-047EC1582983}"/>
   </bookViews>
   <sheets>
     <sheet name="firefighter_route" sheetId="1" r:id="rId1"/>
@@ -482,9 +482,9 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,7 +501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -518,7 +518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -535,7 +535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -552,7 +552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -569,7 +569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -586,7 +586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -603,7 +603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -620,7 +620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -637,7 +637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -654,7 +654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -671,7 +671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -688,7 +688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -705,7 +705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -722,7 +722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -739,7 +739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -756,7 +756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -773,7 +773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -790,7 +790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -807,7 +807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -824,7 +824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -841,7 +841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>1</v>
       </c>
@@ -858,7 +858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>1</v>
       </c>
@@ -875,7 +875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -892,7 +892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>1</v>
       </c>
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>1</v>
       </c>
@@ -926,7 +926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>1</v>
       </c>
@@ -943,7 +943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>1</v>
       </c>
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>1</v>
       </c>
@@ -977,7 +977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>1</v>
       </c>
@@ -994,7 +994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>1</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>1</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>1</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>1</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>1</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>1</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>1</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>1</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>1</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>1</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>1</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>1</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>1</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>1</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <v>1</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>1</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>1</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>1</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
         <v>1</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <v>1</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
         <v>1</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
         <v>1</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <v>1</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>1</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
         <v>1</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
         <v>1</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
         <v>1</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
         <v>1</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <v>1</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
         <v>1</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
         <v>1</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
         <v>1</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>1</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <v>1</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
         <v>1</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <v>1</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
         <v>1</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
         <v>1</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
         <v>1</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
         <v>1</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
         <v>1</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <v>1</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" s="2">
         <v>1</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
         <v>1</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="2">
         <v>1</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" s="2">
         <v>1</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" s="2">
         <v>1</v>
       </c>
@@ -1807,9 +1807,9 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1832,14 +1832,14 @@
       </c>
       <c r="C2" s="2">
         <f ca="1">RANDBETWEEN(20,40)</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2">
         <f ca="1">RANDBETWEEN(10,15)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1848,14 +1848,14 @@
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C66" ca="1" si="0">RANDBETWEEN(20,40)</f>
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D66" ca="1" si="1">RANDBETWEEN(10,15)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1864,14 +1864,14 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1880,14 +1880,14 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1896,30 +1896,30 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="D6" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>29</v>
-      </c>
       <c r="D7" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -1928,14 +1928,14 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -1944,14 +1944,14 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
@@ -1960,14 +1960,14 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -1976,14 +1976,14 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>4</v>
       </c>
@@ -1992,14 +1992,14 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>5</v>
       </c>
@@ -2008,14 +2008,14 @@
       </c>
       <c r="C13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -2024,14 +2024,14 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>6</v>
       </c>
@@ -2040,14 +2040,14 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>6</v>
       </c>
@@ -2056,14 +2056,14 @@
       </c>
       <c r="C16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>6</v>
       </c>
@@ -2072,14 +2072,14 @@
       </c>
       <c r="C17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>6</v>
       </c>
@@ -2088,14 +2088,14 @@
       </c>
       <c r="C18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>6</v>
       </c>
@@ -2104,14 +2104,14 @@
       </c>
       <c r="C19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>6</v>
       </c>
@@ -2120,14 +2120,14 @@
       </c>
       <c r="C20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>7</v>
       </c>
@@ -2136,14 +2136,14 @@
       </c>
       <c r="C21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>7</v>
       </c>
@@ -2152,14 +2152,14 @@
       </c>
       <c r="C22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>8</v>
       </c>
@@ -2168,14 +2168,14 @@
       </c>
       <c r="C23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>8</v>
       </c>
@@ -2184,14 +2184,14 @@
       </c>
       <c r="C24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>8</v>
       </c>
@@ -2200,14 +2200,14 @@
       </c>
       <c r="C25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>8</v>
       </c>
@@ -2216,14 +2216,14 @@
       </c>
       <c r="C26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>9</v>
       </c>
@@ -2232,14 +2232,14 @@
       </c>
       <c r="C27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>9</v>
       </c>
@@ -2248,14 +2248,14 @@
       </c>
       <c r="C28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>9</v>
       </c>
@@ -2264,14 +2264,14 @@
       </c>
       <c r="C29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>9</v>
       </c>
@@ -2280,14 +2280,14 @@
       </c>
       <c r="C30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>10</v>
       </c>
@@ -2296,14 +2296,14 @@
       </c>
       <c r="C31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>10</v>
       </c>
@@ -2312,14 +2312,14 @@
       </c>
       <c r="C32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>10</v>
       </c>
@@ -2328,14 +2328,14 @@
       </c>
       <c r="C33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>10</v>
       </c>
@@ -2344,14 +2344,14 @@
       </c>
       <c r="C34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>11</v>
       </c>
@@ -2360,14 +2360,14 @@
       </c>
       <c r="C35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D35" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>11</v>
       </c>
@@ -2376,14 +2376,14 @@
       </c>
       <c r="C36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>11</v>
       </c>
@@ -2392,14 +2392,14 @@
       </c>
       <c r="C37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>11</v>
       </c>
@@ -2408,14 +2408,14 @@
       </c>
       <c r="C38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>12</v>
       </c>
@@ -2424,14 +2424,14 @@
       </c>
       <c r="C39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D39" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>12</v>
       </c>
@@ -2440,14 +2440,14 @@
       </c>
       <c r="C40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>13</v>
       </c>
@@ -2460,10 +2460,10 @@
       </c>
       <c r="D41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>13</v>
       </c>
@@ -2472,14 +2472,14 @@
       </c>
       <c r="C42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>13</v>
       </c>
@@ -2488,14 +2488,14 @@
       </c>
       <c r="C43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D43" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>13</v>
       </c>
@@ -2504,14 +2504,14 @@
       </c>
       <c r="C44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D44" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <v>14</v>
       </c>
@@ -2520,14 +2520,14 @@
       </c>
       <c r="C45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D45" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>14</v>
       </c>
@@ -2536,14 +2536,14 @@
       </c>
       <c r="C46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D46" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>14</v>
       </c>
@@ -2552,14 +2552,14 @@
       </c>
       <c r="C47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D47" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>14</v>
       </c>
@@ -2568,14 +2568,14 @@
       </c>
       <c r="C48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D48" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
         <v>15</v>
       </c>
@@ -2584,14 +2584,14 @@
       </c>
       <c r="C49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D49" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <v>15</v>
       </c>
@@ -2600,14 +2600,14 @@
       </c>
       <c r="C50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D50" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
         <v>15</v>
       </c>
@@ -2616,14 +2616,14 @@
       </c>
       <c r="C51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D51" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
         <v>16</v>
       </c>
@@ -2632,14 +2632,14 @@
       </c>
       <c r="C52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D52" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <v>16</v>
       </c>
@@ -2648,14 +2648,14 @@
       </c>
       <c r="C53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D53" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>16</v>
       </c>
@@ -2664,14 +2664,14 @@
       </c>
       <c r="C54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D54" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
         <v>16</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
         <v>17</v>
       </c>
@@ -2696,14 +2696,14 @@
       </c>
       <c r="C56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
         <v>17</v>
       </c>
@@ -2712,14 +2712,14 @@
       </c>
       <c r="C57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D57" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
         <v>17</v>
       </c>
@@ -2728,14 +2728,14 @@
       </c>
       <c r="C58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D58" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <v>17</v>
       </c>
@@ -2744,14 +2744,14 @@
       </c>
       <c r="C59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D59" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
         <v>18</v>
       </c>
@@ -2760,14 +2760,14 @@
       </c>
       <c r="C60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D60" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
         <v>18</v>
       </c>
@@ -2776,14 +2776,14 @@
       </c>
       <c r="C61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D61" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
         <v>18</v>
       </c>
@@ -2792,14 +2792,14 @@
       </c>
       <c r="C62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D62" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>19</v>
       </c>
@@ -2808,14 +2808,14 @@
       </c>
       <c r="C63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <v>19</v>
       </c>
@@ -2824,14 +2824,14 @@
       </c>
       <c r="C64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D64" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
         <v>19</v>
       </c>
@@ -2840,14 +2840,14 @@
       </c>
       <c r="C65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D65" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <v>20</v>
       </c>
@@ -2856,14 +2856,14 @@
       </c>
       <c r="C66" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D66" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
         <v>20</v>
       </c>
@@ -2876,10 +2876,10 @@
       </c>
       <c r="D67" s="2">
         <f t="shared" ref="D67:D77" ca="1" si="3">RANDBETWEEN(10,15)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
         <v>21</v>
       </c>
@@ -2888,14 +2888,14 @@
       </c>
       <c r="C68" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2">
         <f t="shared" ca="1" si="3"/>
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
         <v>21</v>
       </c>
@@ -2904,14 +2904,14 @@
       </c>
       <c r="C69" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D69" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
         <v>21</v>
       </c>
@@ -2920,14 +2920,14 @@
       </c>
       <c r="C70" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D70" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
         <v>21</v>
       </c>
@@ -2936,14 +2936,14 @@
       </c>
       <c r="C71" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D71" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <v>21</v>
       </c>
@@ -2952,14 +2952,14 @@
       </c>
       <c r="C72" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D72" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="2">
         <v>21</v>
       </c>
@@ -2968,14 +2968,14 @@
       </c>
       <c r="C73" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D73" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
         <v>22</v>
       </c>
@@ -2984,14 +2984,14 @@
       </c>
       <c r="C74" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D74" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="2">
         <v>22</v>
       </c>
@@ -3000,14 +3000,14 @@
       </c>
       <c r="C75" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D75" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="2">
         <v>23</v>
       </c>
@@ -3020,10 +3020,10 @@
       </c>
       <c r="D76" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="2">
         <v>23</v>
       </c>
@@ -3032,11 +3032,11 @@
       </c>
       <c r="C77" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D77" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3049,13 +3049,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79E500C-0498-40B2-BBC0-0B4C6205ED83}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:B23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -3072,12 +3072,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>196</v>
       </c>
-      <c r="B2" s="2">
-        <v>303</v>
+      <c r="B2">
+        <v>151</v>
       </c>
       <c r="C2" s="2">
         <v>3</v>
@@ -3089,12 +3089,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>347</v>
       </c>
-      <c r="B3" s="2">
-        <v>153</v>
+      <c r="B3">
+        <v>76</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
@@ -3106,12 +3106,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>347</v>
       </c>
-      <c r="B4" s="2">
-        <v>453</v>
+      <c r="B4">
+        <v>226</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
@@ -3123,12 +3123,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>347</v>
       </c>
-      <c r="B5" s="2">
-        <v>753</v>
+      <c r="B5">
+        <v>376</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
@@ -3140,12 +3140,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>347</v>
       </c>
-      <c r="B6" s="2">
-        <v>1053</v>
+      <c r="B6">
+        <v>526</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -3157,12 +3157,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>498</v>
       </c>
-      <c r="B7" s="2">
-        <v>303</v>
+      <c r="B7">
+        <v>151</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
@@ -3174,12 +3174,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>498</v>
       </c>
-      <c r="B8" s="2">
-        <v>603</v>
+      <c r="B8">
+        <v>301</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
@@ -3191,12 +3191,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>498</v>
       </c>
-      <c r="B9" s="2">
-        <v>903</v>
+      <c r="B9">
+        <v>451</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
@@ -3208,12 +3208,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>649</v>
       </c>
-      <c r="B10" s="2">
-        <v>153</v>
+      <c r="B10">
+        <v>76</v>
       </c>
       <c r="C10" s="2">
         <v>3</v>
@@ -3225,12 +3225,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>649</v>
       </c>
-      <c r="B11" s="2">
-        <v>453</v>
+      <c r="B11">
+        <v>226</v>
       </c>
       <c r="C11" s="2">
         <v>3</v>
@@ -3242,12 +3242,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>649</v>
       </c>
-      <c r="B12" s="2">
-        <v>753</v>
+      <c r="B12">
+        <v>376</v>
       </c>
       <c r="C12" s="2">
         <v>3</v>
@@ -3259,12 +3259,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>800</v>
       </c>
-      <c r="B13" s="2">
-        <v>78</v>
+      <c r="B13">
+        <v>39</v>
       </c>
       <c r="C13" s="2">
         <v>3</v>
@@ -3276,12 +3276,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>800</v>
       </c>
-      <c r="B14" s="2">
-        <v>303</v>
+      <c r="B14">
+        <v>151</v>
       </c>
       <c r="C14" s="2">
         <v>3</v>
@@ -3293,12 +3293,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>800</v>
       </c>
-      <c r="B15" s="2">
-        <v>603</v>
+      <c r="B15">
+        <v>301</v>
       </c>
       <c r="C15" s="2">
         <v>3</v>
@@ -3310,12 +3310,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>951</v>
       </c>
-      <c r="B16" s="2">
-        <v>153</v>
+      <c r="B16">
+        <v>76</v>
       </c>
       <c r="C16" s="2">
         <v>3</v>
@@ -3327,12 +3327,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>951</v>
       </c>
-      <c r="B17" s="2">
-        <v>453</v>
+      <c r="B17">
+        <v>226</v>
       </c>
       <c r="C17" s="2">
         <v>3</v>
@@ -3344,12 +3344,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>951</v>
       </c>
-      <c r="B18" s="2">
-        <v>753</v>
+      <c r="B18">
+        <v>376</v>
       </c>
       <c r="C18" s="2">
         <v>3</v>
@@ -3361,12 +3361,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>1102</v>
       </c>
-      <c r="B19" s="2">
-        <v>303</v>
+      <c r="B19">
+        <v>151</v>
       </c>
       <c r="C19" s="2">
         <v>3</v>
@@ -3378,12 +3378,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>1102</v>
       </c>
-      <c r="B20" s="2">
-        <v>603</v>
+      <c r="B20">
+        <v>301</v>
       </c>
       <c r="C20" s="2">
         <v>3</v>
@@ -3395,12 +3395,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>1102</v>
       </c>
-      <c r="B21" s="2">
-        <v>903</v>
+      <c r="B21">
+        <v>451</v>
       </c>
       <c r="C21" s="2">
         <v>3</v>
@@ -3412,12 +3412,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>1253</v>
       </c>
-      <c r="B22" s="2">
-        <v>453</v>
+      <c r="B22">
+        <v>226</v>
       </c>
       <c r="C22" s="2">
         <v>3</v>
@@ -3429,12 +3429,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>1253</v>
       </c>
-      <c r="B23" s="2">
-        <v>753</v>
+      <c r="B23">
+        <v>376</v>
       </c>
       <c r="C23" s="2">
         <v>3</v>
@@ -3446,12 +3446,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>1404</v>
       </c>
-      <c r="B24" s="2">
-        <v>303</v>
+      <c r="B24">
+        <v>151</v>
       </c>
       <c r="C24" s="2">
         <v>3</v>
@@ -3477,9 +3477,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3509,14 +3509,14 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>21</v>
       </c>
@@ -3535,14 +3535,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>300</v>
       </c>
